--- a/GameDesign/HMcsv설명/MiniGameTable.xlsx
+++ b/GameDesign/HMcsv설명/MiniGameTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\용사관리사\기획\테이블\테이블\csv1설명\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\github\Heros-Manager\GameDesign\HMcsv설명\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8E284C-F12D-4F3A-9D2B-84781C40D5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE792FEB-7A85-4F81-9920-4987FF717AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="816" yWindow="1344" windowWidth="19440" windowHeight="10572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiniGameTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>ObjectID</t>
   </si>
@@ -296,12 +296,6 @@
   </si>
   <si>
     <t>game3fairy3</t>
-  </si>
-  <si>
-    <t>game3portal</t>
-  </si>
-  <si>
-    <t>MG_S3_Portal</t>
   </si>
 </sst>
 </file>
@@ -1253,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4509,65 +4503,6 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56">
-        <v>-1</v>
-      </c>
-      <c r="D56">
-        <v>-1</v>
-      </c>
-      <c r="E56">
-        <v>-1</v>
-      </c>
-      <c r="F56">
-        <v>-1</v>
-      </c>
-      <c r="G56">
-        <v>-1</v>
-      </c>
-      <c r="H56">
-        <v>-1</v>
-      </c>
-      <c r="I56">
-        <v>-1</v>
-      </c>
-      <c r="J56">
-        <v>-1</v>
-      </c>
-      <c r="K56">
-        <v>-1</v>
-      </c>
-      <c r="L56">
-        <v>-1</v>
-      </c>
-      <c r="M56">
-        <v>16</v>
-      </c>
-      <c r="N56">
-        <v>10</v>
-      </c>
-      <c r="O56">
-        <v>1.2</v>
-      </c>
-      <c r="P56">
-        <v>-1</v>
-      </c>
-      <c r="Q56">
-        <v>-1</v>
-      </c>
-      <c r="R56">
-        <v>-1</v>
-      </c>
-      <c r="S56">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
